--- a/FE_Dashboard/TouchGFX/assets/texts/texts.xlsx
+++ b/FE_Dashboard/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="61">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -165,6 +165,39 @@
   </si>
   <si>
     <t xml:space="preserve">test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">text: &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new: &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typography_00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x20-0x7f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0123456789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-9,a-z,A-Z</t>
   </si>
 </sst>
 </file>
@@ -1351,7 +1384,7 @@
         <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J4" t="s">
         <v>40</v>
@@ -1395,7 +1428,7 @@
         <v>40</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J5" t="s">
         <v>40</v>
@@ -1437,7 +1470,7 @@
         <v>40</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J6" t="s">
         <v>40</v>
@@ -1457,6 +1490,33 @@
       <c r="P6" s="10"/>
     </row>
     <row r="7" spans="2:16">
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" t="s">
+        <v>40</v>
+      </c>
       <c r="L7" s="7" t="s">
         <v>7</v>
       </c>
@@ -1589,24 +1649,24 @@
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
         <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
@@ -1618,7 +1678,7 @@
         <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/FE_Dashboard/TouchGFX/assets/texts/texts.xlsx
+++ b/FE_Dashboard/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="61">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -1664,23 +1664,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" t="s">
-        <v>55</v>
-      </c>
-    </row>
+    <row r="5"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>
